--- a/dökümanlar/Okul34 Geliştirmeleri.xlsx
+++ b/dökümanlar/Okul34 Geliştirmeleri.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Yapılacaklar</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Haber roportaj ara yazısı haberber yazıyor.Haber ve roportajlarda popup açılacak devamı yazacak tıklandığınıda şu anki pozisyona gelecek</t>
   </si>
   <si>
-    <t>s1,s2,s3,s4,s5 üstün by sponsor yazılacak maviler devamlı dönecek</t>
-  </si>
-  <si>
     <t>sayfanın sağında solunda sıkıntı var kesik gözüküyor</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>s1,s2,s3,s4,s5 üstüne by sponsor yazılacak maviler devamlı dönecek</t>
   </si>
 </sst>
 </file>
@@ -465,11 +465,12 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="136.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
@@ -490,15 +491,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -509,15 +513,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -563,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -641,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -652,25 +659,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -731,5 +744,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dökümanlar/Okul34 Geliştirmeleri.xlsx
+++ b/dökümanlar/Okul34 Geliştirmeleri.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Yapılacaklar</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,12 +527,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,20 +576,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -600,12 +609,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,12 +647,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/dökümanlar/Okul34 Geliştirmeleri.xlsx
+++ b/dökümanlar/Okul34 Geliştirmeleri.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,11 +538,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -620,11 +620,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
